--- a/TiemposOrdenamiento/TiemposDeOrdenamiento.xlsx
+++ b/TiemposOrdenamiento/TiemposDeOrdenamiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diefe\Documents\Universidad\Programación\Ciencias\TiemposOrdenamiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA07825E-154A-4DC9-A4A5-3C356F45FC2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD8F98A-6548-420D-ADB9-53F975F248D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{26B82601-E3C1-4633-9FF4-C8685F613770}"/>
   </bookViews>
@@ -209,22 +209,9 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -240,8 +227,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6628,154 +6628,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>270</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1140</c:v>
+                  <c:v>294.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2610</c:v>
+                  <c:v>667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4680</c:v>
+                  <c:v>1189.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7350</c:v>
+                  <c:v>1862</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10620</c:v>
+                  <c:v>2684.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14490</c:v>
+                  <c:v>3657</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18960</c:v>
+                  <c:v>4779.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24030</c:v>
+                  <c:v>6052</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29700</c:v>
+                  <c:v>7474.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35970</c:v>
+                  <c:v>9047</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42840</c:v>
+                  <c:v>10769.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50310</c:v>
+                  <c:v>12642</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58380</c:v>
+                  <c:v>14664.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>67050</c:v>
+                  <c:v>16837</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>76320</c:v>
+                  <c:v>19159.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>86190</c:v>
+                  <c:v>21632</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>96660</c:v>
+                  <c:v>24254.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>107730</c:v>
+                  <c:v>27027</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>119400</c:v>
+                  <c:v>29949.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>131670</c:v>
+                  <c:v>33022</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>144540</c:v>
+                  <c:v>36244.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>158010</c:v>
+                  <c:v>39617</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>172080</c:v>
+                  <c:v>43139.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>186750</c:v>
+                  <c:v>46812</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>202020</c:v>
+                  <c:v>50634.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>217890</c:v>
+                  <c:v>54607</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>234360</c:v>
+                  <c:v>58729.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>251430</c:v>
+                  <c:v>63002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>269100</c:v>
+                  <c:v>67424.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>287370</c:v>
+                  <c:v>71997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>306240</c:v>
+                  <c:v>76719.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>325710</c:v>
+                  <c:v>81592</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>345780</c:v>
+                  <c:v>86614.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>366450</c:v>
+                  <c:v>91787</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>387720</c:v>
+                  <c:v>97109.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>409590</c:v>
+                  <c:v>102582</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>432060</c:v>
+                  <c:v>108204.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>455130</c:v>
+                  <c:v>113977</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>478800</c:v>
+                  <c:v>119899.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>503070</c:v>
+                  <c:v>125972</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>527940</c:v>
+                  <c:v>132194.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>553410</c:v>
+                  <c:v>138567</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>579480</c:v>
+                  <c:v>145089.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>606150</c:v>
+                  <c:v>151762</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>633420</c:v>
+                  <c:v>158584.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>661290</c:v>
+                  <c:v>165557</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>689760</c:v>
+                  <c:v>172679.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>718830</c:v>
+                  <c:v>179952</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>748500</c:v>
+                  <c:v>187374.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14536,39 +14536,39 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15539,45 +15539,45 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15596,8 +15596,8 @@
         <v>13.5</v>
       </c>
       <c r="E4">
-        <f>(3*A4)*(A4-1)</f>
-        <v>270</v>
+        <f>((3*A4*A4)-(A4)-2)/4</f>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -15615,8 +15615,8 @@
         <v>28.5</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E53" si="1">(3*A5)*(A5-1)</f>
-        <v>1140</v>
+        <f t="shared" ref="E5:E53" si="1">((3*A5*A5)-(A5)-2)/4</f>
+        <v>294.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -15635,7 +15635,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>2610</v>
+        <v>667</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -15654,7 +15654,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>4680</v>
+        <v>1189.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -15673,7 +15673,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>7350</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -15692,7 +15692,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>10620</v>
+        <v>2684.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -15711,7 +15711,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>14490</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -15730,7 +15730,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>18960</v>
+        <v>4779.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -15749,7 +15749,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>24030</v>
+        <v>6052</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -15768,7 +15768,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>29700</v>
+        <v>7474.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -15787,7 +15787,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>35970</v>
+        <v>9047</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -15806,7 +15806,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>42840</v>
+        <v>10769.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -15825,7 +15825,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>50310</v>
+        <v>12642</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -15844,7 +15844,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>58380</v>
+        <v>14664.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -15863,7 +15863,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>67050</v>
+        <v>16837</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -15882,7 +15882,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>76320</v>
+        <v>19159.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -15901,7 +15901,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>86190</v>
+        <v>21632</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>96660</v>
+        <v>24254.5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -15939,7 +15939,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>107730</v>
+        <v>27027</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -15958,7 +15958,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>119400</v>
+        <v>29949.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -15977,7 +15977,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>131670</v>
+        <v>33022</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -15996,7 +15996,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>144540</v>
+        <v>36244.5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -16015,7 +16015,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>158010</v>
+        <v>39617</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -16034,7 +16034,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>172080</v>
+        <v>43139.5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -16053,7 +16053,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>186750</v>
+        <v>46812</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>202020</v>
+        <v>50634.5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -16091,7 +16091,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>217890</v>
+        <v>54607</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -16110,7 +16110,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>234360</v>
+        <v>58729.5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -16129,7 +16129,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>251430</v>
+        <v>63002</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -16148,7 +16148,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>269100</v>
+        <v>67424.5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -16167,7 +16167,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>287370</v>
+        <v>71997</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -16186,7 +16186,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>306240</v>
+        <v>76719.5</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -16205,7 +16205,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
-        <v>325710</v>
+        <v>81592</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -16224,7 +16224,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
-        <v>345780</v>
+        <v>86614.5</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -16243,7 +16243,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
-        <v>366450</v>
+        <v>91787</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -16262,7 +16262,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
-        <v>387720</v>
+        <v>97109.5</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -16281,7 +16281,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
-        <v>409590</v>
+        <v>102582</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -16300,7 +16300,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
-        <v>432060</v>
+        <v>108204.5</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -16319,7 +16319,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
-        <v>455130</v>
+        <v>113977</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -16338,7 +16338,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="1"/>
-        <v>478800</v>
+        <v>119899.5</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -16357,7 +16357,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="1"/>
-        <v>503070</v>
+        <v>125972</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -16376,7 +16376,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="1"/>
-        <v>527940</v>
+        <v>132194.5</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -16395,7 +16395,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="1"/>
-        <v>553410</v>
+        <v>138567</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -16414,7 +16414,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="1"/>
-        <v>579480</v>
+        <v>145089.5</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -16433,7 +16433,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="1"/>
-        <v>606150</v>
+        <v>151762</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -16452,7 +16452,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="1"/>
-        <v>633420</v>
+        <v>158584.5</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -16471,7 +16471,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="1"/>
-        <v>661290</v>
+        <v>165557</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -16490,7 +16490,7 @@
       </c>
       <c r="E51">
         <f t="shared" si="1"/>
-        <v>689760</v>
+        <v>172679.5</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -16509,7 +16509,7 @@
       </c>
       <c r="E52">
         <f t="shared" si="1"/>
-        <v>718830</v>
+        <v>179952</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -16528,7 +16528,7 @@
       </c>
       <c r="E53">
         <f t="shared" si="1"/>
-        <v>748500</v>
+        <v>187374.5</v>
       </c>
     </row>
   </sheetData>
@@ -16554,37 +16554,37 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
